--- a/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37E83264-3199-4A1F-80A8-D153A13B72A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{199861AF-366B-47B9-9172-58EF5EFF2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{53B3A21E-8702-45D2-8B52-A33A1D90025E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{273C6DFD-B6A4-4986-8F76-7D426AAB2F50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,21 +68,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>97,07%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -101,15 +191,9 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>6,73%</t>
   </si>
   <si>
@@ -131,52 +215,43 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -203,9 +278,6 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,56%</t>
   </si>
   <si>
@@ -227,78 +299,6 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
@@ -356,6 +356,84 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
   </si>
   <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
     <t>94,93%</t>
   </si>
   <si>
@@ -410,52 +488,40 @@
     <t>7,24%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>96,81%</t>
@@ -506,72 +572,6 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
     <t>96,35%</t>
   </si>
   <si>
@@ -623,6 +623,66 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
   </si>
   <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
     <t>95,14%</t>
   </si>
   <si>
@@ -659,34 +719,52 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -725,84 +803,6 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -836,6 +836,48 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
     <t>97,59%</t>
   </si>
   <si>
@@ -884,28 +926,28 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>91,68%</t>
@@ -942,48 +984,6 @@
   </si>
   <si>
     <t>5,39%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -1417,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE460173-1366-4C90-B59A-D2B7341CDC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7127F3DC-A9A4-4296-8847-4B379E21F319}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1535,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>88731</v>
+        <v>11648</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1550,85 +1550,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>94830</v>
+        <v>13533</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25181</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>284</v>
-      </c>
-      <c r="N4" s="7">
-        <v>183560</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>832</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2675</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1825</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>832</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4500</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,54 +1637,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>91406</v>
+        <v>12480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>96655</v>
+        <v>13533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>188060</v>
+        <v>26013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1696,13 +1696,13 @@
         <v>52029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -1711,13 +1711,13 @@
         <v>40641</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -1726,19 +1726,19 @@
         <v>92670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1747,13 +1747,13 @@
         <v>1468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1762,13 +1762,13 @@
         <v>1440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1777,13 +1777,13 @@
         <v>2908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,13 +1798,13 @@
         <v>53497</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -1813,13 +1813,13 @@
         <v>42081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>145</v>
@@ -1828,117 +1828,117 @@
         <v>95578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7">
-        <v>84044</v>
+        <v>88731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7">
+        <v>149</v>
+      </c>
+      <c r="I10" s="7">
+        <v>94830</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
+        <v>284</v>
+      </c>
+      <c r="N10" s="7">
+        <v>183560</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>95</v>
-      </c>
-      <c r="I10" s="7">
-        <v>73075</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="7">
-        <v>217</v>
-      </c>
-      <c r="N10" s="7">
-        <v>157119</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2187</v>
+        <v>1825</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4500</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2187</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,153 +1947,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7">
-        <v>84044</v>
+        <v>91406</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="I12" s="7">
-        <v>75262</v>
+        <v>96655</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="N12" s="7">
-        <v>159306</v>
+        <v>188060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>11648</v>
+        <v>60076</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>90</v>
+      </c>
+      <c r="I13" s="7">
+        <v>55021</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>185</v>
+      </c>
+      <c r="N13" s="7">
+        <v>115097</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13533</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25181</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>832</v>
+        <v>659</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>632</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1291</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>832</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,150 +2102,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D15" s="7">
-        <v>12480</v>
+        <v>60735</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>13533</v>
+        <v>55653</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N15" s="7">
-        <v>26013</v>
+        <v>116388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7">
+        <v>84044</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
         <v>95</v>
       </c>
-      <c r="D16" s="7">
-        <v>60076</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>73075</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55021</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>217</v>
+      </c>
+      <c r="N16" s="7">
+        <v>157119</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>185</v>
-      </c>
-      <c r="N16" s="7">
-        <v>115097</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>659</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2187</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>632</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2187</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1291</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>85</v>
@@ -2257,49 +2257,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D18" s="7">
-        <v>60735</v>
+        <v>84044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7">
-        <v>55653</v>
+        <v>75262</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="N18" s="7">
-        <v>116388</v>
+        <v>159306</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2358,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -2418,13 +2418,13 @@
         <v>302162</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>421</v>
@@ -2433,13 +2433,13 @@
         <v>283184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>876</v>
@@ -2448,13 +2448,13 @@
         <v>585346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EFB5A0-BF9C-40C6-A554-890C79A13141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE63AEC-F848-4E5D-91ED-F5A6774BB6E6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2593,100 +2593,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>85664</v>
+        <v>14490</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11183</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="7">
-        <v>133</v>
-      </c>
-      <c r="I4" s="7">
-        <v>87560</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25673</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="7">
-        <v>261</v>
-      </c>
-      <c r="N4" s="7">
-        <v>173226</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4571</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>760</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>760</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2649</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7219</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,54 +2695,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>90235</v>
+        <v>14490</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11943</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="7">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>137</v>
-      </c>
-      <c r="I6" s="7">
-        <v>90209</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>272</v>
-      </c>
       <c r="N6" s="7">
-        <v>180445</v>
+        <v>26433</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2754,13 +2754,13 @@
         <v>51224</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -2769,13 +2769,13 @@
         <v>44734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -2784,19 +2784,19 @@
         <v>95958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2805,13 +2805,13 @@
         <v>2838</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2820,13 +2820,13 @@
         <v>1631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2835,13 +2835,13 @@
         <v>4469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2856,13 @@
         <v>54062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -2871,13 +2871,13 @@
         <v>46365</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -2886,117 +2886,117 @@
         <v>100427</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>84437</v>
+        <v>85664</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="7">
+        <v>133</v>
+      </c>
+      <c r="I10" s="7">
+        <v>87560</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="7">
+        <v>261</v>
+      </c>
+      <c r="N10" s="7">
+        <v>173226</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>101</v>
-      </c>
-      <c r="I10" s="7">
-        <v>79323</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="7">
-        <v>217</v>
-      </c>
-      <c r="N10" s="7">
-        <v>163761</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2784</v>
+        <v>4571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2971</v>
+        <v>2649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>5754</v>
+        <v>7219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,153 +3005,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7">
-        <v>87221</v>
+        <v>90235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I12" s="7">
-        <v>82294</v>
+        <v>90209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="N12" s="7">
-        <v>169515</v>
+        <v>180445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>14490</v>
+        <v>65013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
+        <v>92</v>
+      </c>
+      <c r="I13" s="7">
+        <v>60063</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="7">
-        <v>11183</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="N13" s="7">
-        <v>25673</v>
+        <v>125076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1190</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1335</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2524</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>760</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>760</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,144 +3160,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7">
-        <v>14490</v>
+        <v>66203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>11943</v>
+        <v>61398</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N15" s="7">
-        <v>26433</v>
+        <v>127600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>65013</v>
+        <v>84437</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7">
+        <v>101</v>
+      </c>
+      <c r="I16" s="7">
+        <v>79323</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>217</v>
+      </c>
+      <c r="N16" s="7">
+        <v>163761</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>92</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60063</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>195</v>
-      </c>
-      <c r="N16" s="7">
-        <v>125076</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1190</v>
+        <v>2784</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2971</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1335</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>2524</v>
+        <v>5754</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>174</v>
@@ -3315,49 +3315,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7">
+        <v>87221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>105</v>
       </c>
-      <c r="D18" s="7">
-        <v>66203</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>94</v>
-      </c>
       <c r="I18" s="7">
-        <v>61398</v>
+        <v>82294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="N18" s="7">
-        <v>127600</v>
+        <v>169515</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>282865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>180</v>
@@ -3416,7 +3416,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>17</v>
@@ -3440,7 +3440,7 @@
         <v>9344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>188</v>
@@ -3476,13 +3476,13 @@
         <v>312212</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>415</v>
@@ -3491,13 +3491,13 @@
         <v>292209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>870</v>
@@ -3506,13 +3506,13 @@
         <v>604421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F024B7F8-5CBC-4BBD-B30A-8ED94EA16FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D547F53-120F-47C4-80C9-7D04FD39D807}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,40 +3651,40 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>96742</v>
+        <v>11455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>95915</v>
+        <v>10896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>192657</v>
+        <v>22351</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>197</v>
@@ -3693,58 +3693,58 @@
         <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1033</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1342</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1166</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1033</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2508</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,54 +3753,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>98084</v>
+        <v>12488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>97081</v>
+        <v>10896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>195165</v>
+        <v>23384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3812,13 +3812,13 @@
         <v>51789</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3827,13 +3827,13 @@
         <v>52291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3842,19 +3842,19 @@
         <v>104080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -3863,13 +3863,13 @@
         <v>1801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3893,13 +3893,13 @@
         <v>1801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3914,13 @@
         <v>53590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3929,13 +3929,13 @@
         <v>52291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -3944,117 +3944,117 @@
         <v>105881</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>93262</v>
+        <v>96742</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>145</v>
+      </c>
+      <c r="I10" s="7">
+        <v>95915</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>284</v>
+      </c>
+      <c r="N10" s="7">
+        <v>192657</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>127</v>
-      </c>
-      <c r="I10" s="7">
-        <v>97871</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>253</v>
-      </c>
-      <c r="N10" s="7">
-        <v>191133</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1342</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>670</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1166</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2508</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>753</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1423</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,93 +4063,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D12" s="7">
-        <v>93932</v>
+        <v>98084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="I12" s="7">
-        <v>98624</v>
+        <v>97081</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="N12" s="7">
-        <v>192556</v>
+        <v>195165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>11455</v>
+        <v>67212</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>96</v>
+      </c>
+      <c r="I13" s="7">
+        <v>62145</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10896</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="N13" s="7">
-        <v>22351</v>
+        <v>129358</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>231</v>
@@ -4158,58 +4158,58 @@
         <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1033</v>
+        <v>700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>1033</v>
+        <v>3831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,150 +4218,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7">
-        <v>12488</v>
+        <v>67912</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>10896</v>
+        <v>65277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="N15" s="7">
-        <v>23384</v>
+        <v>133189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D16" s="7">
-        <v>67212</v>
+        <v>93262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>62145</v>
+        <v>97871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="N16" s="7">
-        <v>129358</v>
+        <v>191133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3132</v>
+        <v>753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>3831</v>
+        <v>1423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>253</v>
@@ -4373,49 +4373,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7">
-        <v>67912</v>
+        <v>93932</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I18" s="7">
-        <v>65277</v>
+        <v>98624</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>133189</v>
+        <v>192556</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
         <v>320460</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>87</v>
@@ -4447,7 +4447,7 @@
         <v>319117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>255</v>
@@ -4474,7 +4474,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4483,7 +4483,7 @@
         <v>5546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>259</v>
@@ -4498,7 +4498,7 @@
         <v>5051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>260</v>
@@ -4534,13 +4534,13 @@
         <v>326006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>462</v>
@@ -4549,13 +4549,13 @@
         <v>324168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>909</v>
@@ -4564,13 +4564,13 @@
         <v>650174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C7A81-C765-4C50-B874-CB8FEA62539D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE173B-A61E-4581-8432-58F984E4DB88}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4709,100 +4709,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>100219</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1593</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3918</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="7">
-        <v>78</v>
-      </c>
-      <c r="I4" s="7">
-        <v>56283</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7">
-        <v>194</v>
-      </c>
-      <c r="N4" s="7">
-        <v>156503</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2479</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3256</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,54 +4811,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4870,13 +4870,13 @@
         <v>41965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -4885,13 +4885,13 @@
         <v>31294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -4903,16 +4903,16 @@
         <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4936,13 +4936,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4954,10 +4954,10 @@
         <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4972,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -4987,13 +4987,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -5002,117 +5002,117 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>55217</v>
+        <v>100219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>55653</v>
+        <v>56283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>110870</v>
+        <v>156503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1125</v>
+        <v>2479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>831</v>
+        <v>777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>1956</v>
+        <v>3256</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,108 +5121,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>2324</v>
+        <v>64708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>1593</v>
+        <v>56060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="N13" s="7">
-        <v>3918</v>
+        <v>120768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5231,43 +5231,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,150 +5276,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7">
-        <v>2324</v>
+        <v>64708</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>56478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="N15" s="7">
-        <v>3918</v>
+        <v>121186</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>64708</v>
+        <v>55217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>74</v>
+      </c>
+      <c r="I16" s="7">
+        <v>55653</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>142</v>
+      </c>
+      <c r="N16" s="7">
+        <v>110870</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7">
-        <v>66</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56060</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>132</v>
-      </c>
-      <c r="N16" s="7">
-        <v>120768</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1125</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>418</v>
+        <v>831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1956</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>418</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>314</v>
@@ -5431,49 +5431,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>64708</v>
+        <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>56478</v>
+        <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="N18" s="7">
-        <v>121186</v>
+        <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,10 +5505,10 @@
         <v>200883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>318</v>
@@ -5532,7 +5532,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -5556,13 +5556,13 @@
         <v>2631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5592,13 +5592,13 @@
         <v>268038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>271</v>
@@ -5607,13 +5607,13 @@
         <v>203514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>579</v>
@@ -5622,13 +5622,13 @@
         <v>471552</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{199861AF-366B-47B9-9172-58EF5EFF2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC06FFD-BAAC-430D-92C4-1A7A1F86D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{273C6DFD-B6A4-4986-8F76-7D426AAB2F50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{441FDBCB-623E-4D15-8C9C-CB263042D2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="322">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>72,32%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,940 +116,895 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>83,06%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>91,57%</t>
+    <t>91,5%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>88,1%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>93,05%</t>
+    <t>92,4%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
     <t>97,07%</t>
   </si>
   <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>92,5%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>95,69%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>93,03%</t>
+    <t>91,07%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>94,61%</t>
+    <t>94,51%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1015,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1132,39 +1111,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1216,7 +1195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1327,13 +1306,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1342,6 +1314,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1406,19 +1385,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7127F3DC-A9A4-4296-8847-4B379E21F319}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A692472F-97BA-41BF-AF62-499F3F78066A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1535,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>11648</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1550,13 +1549,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>13533</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1565,19 +1564,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>25181</v>
+        <v>832</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,10 +1585,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>832</v>
+        <v>11648</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1601,13 +1600,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>13533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1616,19 +1615,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>832</v>
+        <v>25181</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,13 +1642,13 @@
         <v>12480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -1658,13 +1657,13 @@
         <v>13533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -1673,13 +1672,13 @@
         <v>26013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,40 +1689,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>52029</v>
+        <v>1468</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>40641</v>
+        <v>1440</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>92670</v>
+        <v>2908</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1741,40 +1740,40 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7">
-        <v>1468</v>
+        <v>52029</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>1440</v>
+        <v>40641</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>2908</v>
+        <v>92670</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1798,13 +1797,13 @@
         <v>53497</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -1813,13 +1812,13 @@
         <v>42081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>145</v>
@@ -1828,13 +1827,13 @@
         <v>95578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>88731</v>
+        <v>2675</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1857,37 +1856,37 @@
         <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>94830</v>
+        <v>1825</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>183560</v>
+        <v>4500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,49 +1895,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>2675</v>
+        <v>88731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>1825</v>
+        <v>94830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="N11" s="7">
-        <v>4500</v>
+        <v>183560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1952,13 @@
         <v>91406</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>152</v>
@@ -1968,13 +1967,13 @@
         <v>96655</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>291</v>
@@ -1983,66 +1982,66 @@
         <v>188060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>60076</v>
+        <v>659</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>55021</v>
+        <v>632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>115097</v>
+        <v>1291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,49 +2050,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>659</v>
+        <v>60076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>632</v>
+        <v>55021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="N14" s="7">
-        <v>1291</v>
+        <v>115097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2107,13 @@
         <v>60735</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -2123,13 +2122,13 @@
         <v>55653</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>187</v>
@@ -2138,66 +2137,66 @@
         <v>116388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>84044</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>73075</v>
+        <v>2187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>157119</v>
+        <v>2187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,49 +2205,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>84044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>2187</v>
+        <v>73075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="N17" s="7">
-        <v>2187</v>
+        <v>157119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2262,13 @@
         <v>84044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -2278,13 +2277,13 @@
         <v>75262</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -2293,13 +2292,13 @@
         <v>159306</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,49 +2309,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>447</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>296528</v>
+        <v>5634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>277099</v>
+        <v>6085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>859</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>573627</v>
+        <v>11719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,25 +2360,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>447</v>
       </c>
       <c r="D20" s="7">
-        <v>5634</v>
+        <v>296528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>412</v>
       </c>
       <c r="I20" s="7">
-        <v>6085</v>
+        <v>277099</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>98</v>
@@ -2391,10 +2390,10 @@
         <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>859</v>
       </c>
       <c r="N20" s="7">
-        <v>11719</v>
+        <v>573627</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>101</v>
@@ -2418,13 +2417,13 @@
         <v>302162</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>421</v>
@@ -2433,13 +2432,13 @@
         <v>283184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>876</v>
@@ -2448,13 +2447,18 @@
         <v>585346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2475,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE63AEC-F848-4E5D-91ED-F5A6774BB6E6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD9B1FE-4142-43D8-BD7F-6D4F6DA765E6}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2492,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2593,49 +2597,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>14490</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>11183</v>
+        <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>25673</v>
+        <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,49 +2648,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>14490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>760</v>
+        <v>11183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>760</v>
+        <v>25673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2705,13 @@
         <v>14490</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -2716,13 +2720,13 @@
         <v>11943</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -2731,13 +2735,13 @@
         <v>26433</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,49 +2752,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>51224</v>
+        <v>2838</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>44734</v>
+        <v>1631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>95958</v>
+        <v>4469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,49 +2803,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>2838</v>
+        <v>51224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>1631</v>
+        <v>44734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="N8" s="7">
-        <v>4469</v>
+        <v>95958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2860,13 @@
         <v>54062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -2871,13 +2875,13 @@
         <v>46365</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -2886,13 +2890,13 @@
         <v>100427</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,25 +2907,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>85664</v>
+        <v>4571</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>87560</v>
+        <v>2649</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>134</v>
@@ -2933,10 +2937,10 @@
         <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>173226</v>
+        <v>7219</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>137</v>
@@ -2954,10 +2958,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>4571</v>
+        <v>85664</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>140</v>
@@ -2966,37 +2970,37 @@
         <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="7">
+        <v>133</v>
+      </c>
+      <c r="I11" s="7">
+        <v>87560</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2649</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>261</v>
+      </c>
+      <c r="N11" s="7">
+        <v>173226</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7219</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3015,13 @@
         <v>90235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -3026,13 +3030,13 @@
         <v>90209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>272</v>
@@ -3041,57 +3045,57 @@
         <v>180445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>65013</v>
+        <v>1190</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1335</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>92</v>
-      </c>
-      <c r="I13" s="7">
-        <v>60063</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>125076</v>
+        <v>2524</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>152</v>
@@ -3109,49 +3113,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>1190</v>
+        <v>65013</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="I14" s="7">
-        <v>1335</v>
+        <v>60063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="N14" s="7">
-        <v>2524</v>
+        <v>125076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3170,13 @@
         <v>66203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>94</v>
@@ -3181,13 +3185,13 @@
         <v>61398</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>199</v>
@@ -3196,66 +3200,66 @@
         <v>127600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>84437</v>
+        <v>2784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>79323</v>
+        <v>2971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>163761</v>
+        <v>5754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,49 +3268,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>2784</v>
+        <v>84437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>2971</v>
+        <v>79323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="N17" s="7">
-        <v>5754</v>
+        <v>163761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3325,13 @@
         <v>87221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -3336,13 +3340,13 @@
         <v>82294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -3351,13 +3355,13 @@
         <v>169515</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,49 +3372,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>438</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>300830</v>
+        <v>11382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
-        <v>402</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>282865</v>
+        <v>9344</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
-        <v>840</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>583695</v>
+        <v>20726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,49 +3423,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>438</v>
       </c>
       <c r="D20" s="7">
-        <v>11382</v>
+        <v>300830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="I20" s="7">
-        <v>9344</v>
+        <v>282865</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
-        <v>30</v>
+        <v>840</v>
       </c>
       <c r="N20" s="7">
-        <v>20726</v>
+        <v>583695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3480,13 @@
         <v>312212</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>415</v>
@@ -3491,13 +3495,13 @@
         <v>292209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>870</v>
@@ -3506,13 +3510,18 @@
         <v>604421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3533,8 +3542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D547F53-120F-47C4-80C9-7D04FD39D807}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC73C9-390E-4454-8803-13F0CE419CB7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3550,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3651,49 +3660,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1033</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
-        <v>11455</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="L4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1033</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>10896</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7">
-        <v>22351</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,49 +3711,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>1033</v>
+        <v>11455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>10896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>1033</v>
+        <v>22351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3768,13 @@
         <v>12488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3774,13 +3783,13 @@
         <v>10896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3789,13 +3798,13 @@
         <v>23384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,49 +3815,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>51789</v>
+        <v>1801</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>52291</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>104080</v>
+        <v>1801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,49 +3866,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>1801</v>
+        <v>51789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>52291</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>1801</v>
+        <v>104080</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3923,13 @@
         <v>53590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3929,13 +3938,13 @@
         <v>52291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -3944,13 +3953,13 @@
         <v>105881</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,49 +3970,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>96742</v>
+        <v>1342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1166</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>145</v>
-      </c>
-      <c r="I10" s="7">
-        <v>95915</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2508</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>284</v>
-      </c>
-      <c r="N10" s="7">
-        <v>192657</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,49 +4021,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>1342</v>
+        <v>96742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>145</v>
+      </c>
+      <c r="I11" s="7">
+        <v>95915</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1166</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>284</v>
+      </c>
+      <c r="N11" s="7">
+        <v>192657</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2508</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4078,13 @@
         <v>98084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>147</v>
@@ -4084,13 +4093,13 @@
         <v>97081</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>288</v>
@@ -4099,66 +4108,66 @@
         <v>195165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>67212</v>
+        <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3132</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3831</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7">
-        <v>62145</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" s="7">
-        <v>190</v>
-      </c>
-      <c r="N13" s="7">
-        <v>129358</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,49 +4176,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>700</v>
+        <v>67212</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>96</v>
+      </c>
+      <c r="I14" s="7">
+        <v>62145</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="7">
+        <v>190</v>
+      </c>
+      <c r="N14" s="7">
+        <v>129358</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3132</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3831</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4233,13 @@
         <v>67912</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>101</v>
@@ -4239,13 +4248,13 @@
         <v>65277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>196</v>
@@ -4254,66 +4263,66 @@
         <v>133189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>93262</v>
+        <v>670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>97871</v>
+        <v>753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>191133</v>
+        <v>1423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +4331,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>670</v>
+        <v>93262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>753</v>
+        <v>97871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="N17" s="7">
-        <v>1423</v>
+        <v>191133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4388,13 @@
         <v>93932</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -4394,13 +4403,13 @@
         <v>98624</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -4409,13 +4418,13 @@
         <v>192556</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,49 +4435,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>320460</v>
+        <v>5546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>454</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>319117</v>
+        <v>5051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>894</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>639577</v>
+        <v>10597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,49 +4486,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="D20" s="7">
-        <v>5546</v>
+        <v>320460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="I20" s="7">
-        <v>5051</v>
+        <v>319117</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
-        <v>15</v>
+        <v>894</v>
       </c>
       <c r="N20" s="7">
-        <v>10597</v>
+        <v>639577</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4543,13 @@
         <v>326006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>462</v>
@@ -4549,13 +4558,13 @@
         <v>324168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>909</v>
@@ -4564,13 +4573,18 @@
         <v>650174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4591,8 +4605,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE173B-A61E-4581-8432-58F984E4DB88}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1DFE82-4ECA-4D5F-9161-0289E0F4CD1F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4608,7 +4622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4709,49 +4723,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,49 +4774,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4831,13 @@
         <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4832,13 +4846,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4847,13 +4861,13 @@
         <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,49 +4878,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>41965</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>31294</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>73258</v>
+        <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,49 +4929,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>41965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>31294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>605</v>
+        <v>73258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4986,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -4987,13 +5001,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -5002,13 +5016,13 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,49 +5033,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>100219</v>
+        <v>2479</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>777</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3256</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="7">
-        <v>78</v>
-      </c>
-      <c r="I10" s="7">
-        <v>56283</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>194</v>
-      </c>
-      <c r="N10" s="7">
-        <v>156503</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +5084,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>2479</v>
+        <v>100219</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="7">
+        <v>78</v>
+      </c>
+      <c r="I11" s="7">
+        <v>56283</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>194</v>
+      </c>
+      <c r="N11" s="7">
+        <v>156503</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>777</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3256</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5141,13 @@
         <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -5142,13 +5156,13 @@
         <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -5157,66 +5171,66 @@
         <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>64708</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>56060</v>
+        <v>418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>120768</v>
+        <v>418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,49 +5239,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>64708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I14" s="7">
-        <v>418</v>
+        <v>56060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="N14" s="7">
-        <v>418</v>
+        <v>120768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5296,13 @@
         <v>64708</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>67</v>
@@ -5297,13 +5311,13 @@
         <v>56478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -5312,66 +5326,66 @@
         <v>121186</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>55217</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>55653</v>
+        <v>831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>110870</v>
+        <v>1956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,49 +5394,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>1125</v>
+        <v>55217</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>831</v>
+        <v>55653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="N17" s="7">
-        <v>1956</v>
+        <v>110870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5451,13 @@
         <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -5452,13 +5466,13 @@
         <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -5467,13 +5481,13 @@
         <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,49 +5498,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>303</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>264435</v>
+        <v>3603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>200883</v>
+        <v>2631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
-        <v>570</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>465317</v>
+        <v>6235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,49 +5549,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="D20" s="7">
-        <v>3603</v>
+        <v>264435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="I20" s="7">
-        <v>2631</v>
+        <v>200883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>570</v>
       </c>
       <c r="N20" s="7">
-        <v>6235</v>
+        <v>465317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5606,13 @@
         <v>268038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>271</v>
@@ -5607,13 +5621,13 @@
         <v>203514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>579</v>
@@ -5622,13 +5636,18 @@
         <v>471552</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC06FFD-BAAC-430D-92C4-1A7A1F86D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D9D485-2E7F-4D86-8642-FEC411D64354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{441FDBCB-623E-4D15-8C9C-CB263042D2D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE1C9F9-3BF4-404E-B5FB-7CB7DC719641}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>33,41%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>16,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>66,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,895 +116,889 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,9%</t>
+    <t>12,0%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>92,5%</t>
+    <t>93,2%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>95,6%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>8,93%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>91,07%</t>
+    <t>93,94%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A692472F-97BA-41BF-AF62-499F3F78066A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B6E677-6138-485E-9A71-56711B779238}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2318,10 +2312,10 @@
         <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2330,13 +2324,13 @@
         <v>6085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2345,13 +2339,13 @@
         <v>11719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2360,13 @@
         <v>296528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>412</v>
@@ -2381,13 +2375,13 @@
         <v>277099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>859</v>
@@ -2396,13 +2390,13 @@
         <v>573627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2452,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD9B1FE-4142-43D8-BD7F-6D4F6DA765E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBEAE30-56C0-446A-9586-BA381D3AB5A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2496,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2618,13 +2612,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2633,13 +2627,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2651,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2669,10 +2663,10 @@
         <v>11183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2684,10 +2678,10 @@
         <v>25673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2758,13 +2752,13 @@
         <v>2838</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2773,7 +2767,7 @@
         <v>1631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -2815,7 +2809,7 @@
         <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2824,10 +2818,10 @@
         <v>44734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2839,13 +2833,13 @@
         <v>95958</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2907,13 @@
         <v>4571</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2928,13 +2922,13 @@
         <v>2649</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2943,13 +2937,13 @@
         <v>7219</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2958,13 @@
         <v>85664</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
@@ -3083,13 +3077,13 @@
         <v>1335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3098,13 +3092,13 @@
         <v>2524</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3113,10 @@
         <v>65013</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3134,10 +3128,10 @@
         <v>60063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3149,13 +3143,13 @@
         <v>125076</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3217,13 @@
         <v>2784</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3238,13 +3232,13 @@
         <v>2971</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3253,13 +3247,13 @@
         <v>5754</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3268,13 @@
         <v>84437</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -3378,13 +3372,13 @@
         <v>11382</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3396,10 +3390,10 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -3408,13 +3402,13 @@
         <v>20726</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3423,13 @@
         <v>300830</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>402</v>
@@ -3447,10 +3441,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>840</v>
@@ -3459,13 +3453,13 @@
         <v>583695</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3515,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC73C9-390E-4454-8803-13F0CE419CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E610463-68C7-4DA5-A121-2978AE0C98BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3666,13 +3660,13 @@
         <v>1033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3687,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3696,13 +3690,13 @@
         <v>1033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,10 +3711,10 @@
         <v>11455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3735,7 +3729,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3747,10 +3741,10 @@
         <v>22351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3821,13 +3815,13 @@
         <v>1801</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3842,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3851,13 +3845,13 @@
         <v>1801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,10 +3866,10 @@
         <v>51789</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3890,7 +3884,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3902,7 +3896,7 @@
         <v>104080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>212</v>
@@ -3982,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3991,13 +3985,13 @@
         <v>1166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4006,13 +4000,13 @@
         <v>2508</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,7 +4024,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4042,10 +4036,10 @@
         <v>95915</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4057,10 +4051,10 @@
         <v>192657</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>222</v>
@@ -4131,13 +4125,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4146,13 +4140,13 @@
         <v>3132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4161,13 +4155,13 @@
         <v>3831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4176,10 @@
         <v>67212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -4197,13 +4191,13 @@
         <v>62145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -4212,13 +4206,13 @@
         <v>129358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4280,13 @@
         <v>670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4301,13 +4295,13 @@
         <v>753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4316,13 +4310,13 @@
         <v>1423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,10 +4331,10 @@
         <v>93262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -4352,10 +4346,10 @@
         <v>97871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4367,10 +4361,10 @@
         <v>191133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -4441,13 +4435,13 @@
         <v>5546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4459,10 +4453,10 @@
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4471,13 +4465,13 @@
         <v>10597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4486,13 @@
         <v>320460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>454</v>
@@ -4510,10 +4504,10 @@
         <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>894</v>
@@ -4522,13 +4516,13 @@
         <v>639577</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4578,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1DFE82-4ECA-4D5F-9161-0289E0F4CD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8D89B8-8CD2-4D09-9833-9E0866596E6D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,7 +4616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4735,7 +4729,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4750,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4765,7 +4759,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4798,7 +4792,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4813,7 +4807,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4890,7 +4884,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4899,13 +4893,13 @@
         <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4914,13 +4908,13 @@
         <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4932,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4950,10 +4944,10 @@
         <v>31294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4965,10 +4959,10 @@
         <v>73258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5039,13 +5033,13 @@
         <v>2479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5054,13 +5048,13 @@
         <v>777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5069,13 +5063,13 @@
         <v>3256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5084,13 @@
         <v>100219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -5105,10 +5099,10 @@
         <v>56283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -5120,10 +5114,10 @@
         <v>156503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>287</v>
@@ -5209,7 +5203,7 @@
         <v>418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -5260,7 +5254,7 @@
         <v>56060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>293</v>
@@ -5349,7 +5343,7 @@
         <v>1125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -5400,7 +5394,7 @@
         <v>55217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>302</v>
@@ -5504,13 +5498,13 @@
         <v>3603</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5519,13 +5513,13 @@
         <v>2631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5534,13 +5528,13 @@
         <v>6235</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5549,13 @@
         <v>264435</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -5570,13 +5564,13 @@
         <v>200883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>570</v>
@@ -5585,13 +5579,13 @@
         <v>465317</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5641,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D9D485-2E7F-4D86-8642-FEC411D64354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A01C6D5-0A69-4F26-92E5-C4EFF7E7D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE1C9F9-3BF4-404E-B5FB-7CB7DC719641}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EBE6BF98-47E8-4681-8AAC-85EE45D16D67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,937 +68,892 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,41%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>10,53%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1365,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B6E677-6138-485E-9A71-56711B779238}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE65DC9-BFB6-42DA-93BA-E25A616CBDA0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1528,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1543,85 +1498,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>832</v>
+        <v>3740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>11648</v>
+        <v>54174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I5" s="7">
-        <v>13533</v>
+        <v>63677</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="N5" s="7">
-        <v>25181</v>
+        <v>117851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,153 +1585,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>12480</v>
+        <v>55614</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>13533</v>
+        <v>65977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>26013</v>
+        <v>121591</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1468</v>
+        <v>1825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1440</v>
+        <v>2675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>2908</v>
+        <v>4500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>52029</v>
+        <v>94830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="I8" s="7">
-        <v>40641</v>
+        <v>88731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="N8" s="7">
-        <v>92670</v>
+        <v>183560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,153 +1740,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D9" s="7">
-        <v>53497</v>
+        <v>96655</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="I9" s="7">
-        <v>42081</v>
+        <v>91406</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="N9" s="7">
-        <v>95578</v>
+        <v>188060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2675</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1825</v>
+        <v>659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4500</v>
+        <v>1291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>88731</v>
+        <v>55021</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>94830</v>
+        <v>60076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="N11" s="7">
-        <v>183560</v>
+        <v>115097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,153 +1895,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>91406</v>
+        <v>55653</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="I12" s="7">
-        <v>96655</v>
+        <v>60735</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="N12" s="7">
-        <v>188060</v>
+        <v>116388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>659</v>
+        <v>2187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>632</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1291</v>
+        <v>2187</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>60076</v>
+        <v>73075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>55021</v>
+        <v>84044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
-        <v>115097</v>
+        <v>157119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,153 +2050,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>60735</v>
+        <v>75262</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="I15" s="7">
-        <v>55653</v>
+        <v>84044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="N15" s="7">
-        <v>116388</v>
+        <v>159306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>6085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2187</v>
+        <v>5634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>2187</v>
+        <v>11719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="D17" s="7">
-        <v>84044</v>
+        <v>277099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
+        <v>447</v>
+      </c>
+      <c r="I17" s="7">
+        <v>296528</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>859</v>
+      </c>
+      <c r="N17" s="7">
+        <v>573627</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="7">
-        <v>73075</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>217</v>
-      </c>
-      <c r="N17" s="7">
-        <v>157119</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,217 +2205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>421</v>
       </c>
       <c r="D18" s="7">
-        <v>84044</v>
+        <v>283184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="I18" s="7">
-        <v>75262</v>
+        <v>302162</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>220</v>
+        <v>876</v>
       </c>
       <c r="N18" s="7">
-        <v>159306</v>
+        <v>585346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5634</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6085</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11719</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>447</v>
-      </c>
-      <c r="D20" s="7">
-        <v>296528</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>412</v>
-      </c>
-      <c r="I20" s="7">
-        <v>277099</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>859</v>
-      </c>
-      <c r="N20" s="7">
-        <v>573627</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>455</v>
-      </c>
-      <c r="D21" s="7">
-        <v>302162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>421</v>
-      </c>
-      <c r="I21" s="7">
-        <v>283184</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>876</v>
-      </c>
-      <c r="N21" s="7">
-        <v>585346</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2473,8 +2272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBEAE30-56C0-446A-9586-BA381D3AB5A3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE167DC-A488-412F-9E48-C2A870CA8CFF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2490,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,100 +2390,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>760</v>
+        <v>2838</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>760</v>
+        <v>5228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>14490</v>
+        <v>55919</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="7">
+        <v>91</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65714</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11183</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>167</v>
+      </c>
+      <c r="N5" s="7">
+        <v>121633</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>29</v>
-      </c>
-      <c r="N5" s="7">
-        <v>25673</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,54 +2492,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7">
-        <v>14490</v>
+        <v>58309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="I6" s="7">
-        <v>11943</v>
+        <v>68552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="N6" s="7">
-        <v>26433</v>
+        <v>126861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2749,97 +2548,97 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2838</v>
+        <v>2649</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1631</v>
+        <v>4571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>4469</v>
+        <v>7219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>51224</v>
+        <v>87560</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>44734</v>
+        <v>85664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="N8" s="7">
-        <v>95958</v>
+        <v>173226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,129 +2647,129 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D9" s="7">
-        <v>54062</v>
+        <v>90209</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>46365</v>
+        <v>90235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>100427</v>
+        <v>180445</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>4571</v>
+        <v>1335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1190</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="7">
         <v>4</v>
       </c>
-      <c r="I10" s="7">
-        <v>2649</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
       <c r="N10" s="7">
-        <v>7219</v>
+        <v>2524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7">
-        <v>85664</v>
+        <v>60062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>87560</v>
+        <v>65013</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>142</v>
@@ -2979,22 +2778,22 @@
         <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7">
+        <v>195</v>
+      </c>
+      <c r="N11" s="7">
+        <v>125076</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="7">
-        <v>261</v>
-      </c>
-      <c r="N11" s="7">
-        <v>173226</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,153 +2802,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7">
-        <v>90235</v>
+        <v>61397</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I12" s="7">
-        <v>90209</v>
+        <v>66203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="N12" s="7">
-        <v>180445</v>
+        <v>127600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1190</v>
+        <v>2971</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1335</v>
+        <v>2784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>2524</v>
+        <v>5754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>65013</v>
+        <v>79323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="I14" s="7">
-        <v>60063</v>
+        <v>84437</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
-        <v>125076</v>
+        <v>163761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,150 +2960,150 @@
         <v>105</v>
       </c>
       <c r="D15" s="7">
-        <v>66203</v>
+        <v>82294</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>61398</v>
+        <v>87221</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="N15" s="7">
-        <v>127600</v>
+        <v>169515</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>2784</v>
+        <v>9344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>2971</v>
+        <v>11382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N16" s="7">
-        <v>5754</v>
+        <v>20726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>402</v>
       </c>
       <c r="D17" s="7">
-        <v>84437</v>
+        <v>282865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
-        <v>101</v>
+        <v>438</v>
       </c>
       <c r="I17" s="7">
-        <v>79323</v>
+        <v>300830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
-        <v>217</v>
+        <v>840</v>
       </c>
       <c r="N17" s="7">
-        <v>163761</v>
+        <v>583695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,217 +3112,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>120</v>
+        <v>415</v>
       </c>
       <c r="D18" s="7">
-        <v>87221</v>
+        <v>292209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="I18" s="7">
-        <v>82294</v>
+        <v>312212</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>225</v>
+        <v>870</v>
       </c>
       <c r="N18" s="7">
-        <v>169515</v>
+        <v>604421</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11382</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9344</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="7">
-        <v>30</v>
-      </c>
-      <c r="N19" s="7">
-        <v>20726</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>438</v>
-      </c>
-      <c r="D20" s="7">
-        <v>300830</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="7">
-        <v>402</v>
-      </c>
-      <c r="I20" s="7">
-        <v>282865</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="7">
-        <v>840</v>
-      </c>
-      <c r="N20" s="7">
-        <v>583695</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>455</v>
-      </c>
-      <c r="D21" s="7">
-        <v>312212</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>415</v>
-      </c>
-      <c r="I21" s="7">
-        <v>292209</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>870</v>
-      </c>
-      <c r="N21" s="7">
-        <v>604421</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3536,8 +3179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E610463-68C7-4DA5-A121-2978AE0C98BE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E221F6-638C-4C64-8007-7B7DB9D31652}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3553,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3654,100 +3297,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2834</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1033</v>
+        <v>2834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>11455</v>
+        <v>63187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>10896</v>
+        <v>63243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>167</v>
+      </c>
+      <c r="N5" s="7">
+        <v>126430</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7">
-        <v>22351</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,54 +3399,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7">
-        <v>12488</v>
+        <v>63187</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I6" s="7">
-        <v>10896</v>
+        <v>66077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="N6" s="7">
-        <v>23384</v>
+        <v>129264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3812,97 +3455,97 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1801</v>
+        <v>1166</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1801</v>
+        <v>2508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>51789</v>
+        <v>95915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>52291</v>
+        <v>96742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="N8" s="7">
-        <v>104080</v>
+        <v>192657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,153 +3554,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>53590</v>
+        <v>97081</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>52291</v>
+        <v>98084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="N9" s="7">
-        <v>105881</v>
+        <v>195165</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>1342</v>
+        <v>3132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1166</v>
+        <v>700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>2508</v>
+        <v>3831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>96742</v>
+        <v>62145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="I11" s="7">
-        <v>95915</v>
+        <v>67212</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7">
+        <v>190</v>
+      </c>
+      <c r="N11" s="7">
+        <v>129358</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7">
-        <v>284</v>
-      </c>
-      <c r="N11" s="7">
-        <v>192657</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,54 +3709,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7">
-        <v>98084</v>
+        <v>65277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>97081</v>
+        <v>67912</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="N12" s="7">
-        <v>195165</v>
+        <v>133189</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4122,97 +3765,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>670</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1423</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3132</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3831</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>67212</v>
+        <v>97871</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <v>126</v>
+      </c>
+      <c r="I14" s="7">
+        <v>93262</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="7">
+        <v>253</v>
+      </c>
+      <c r="N14" s="7">
+        <v>191133</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7">
-        <v>62145</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M14" s="7">
-        <v>190</v>
-      </c>
-      <c r="N14" s="7">
-        <v>129358</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,153 +3864,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>67912</v>
+        <v>98624</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I15" s="7">
-        <v>65277</v>
+        <v>93932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>133189</v>
+        <v>192556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>670</v>
+        <v>5051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>753</v>
+        <v>5546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>1423</v>
+        <v>10597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>454</v>
       </c>
       <c r="D17" s="7">
-        <v>93262</v>
+        <v>319117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>440</v>
       </c>
       <c r="I17" s="7">
-        <v>97871</v>
+        <v>320460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
-        <v>253</v>
+        <v>894</v>
       </c>
       <c r="N17" s="7">
-        <v>191133</v>
+        <v>639577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,217 +4019,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>127</v>
+        <v>462</v>
       </c>
       <c r="D18" s="7">
-        <v>93932</v>
+        <v>324168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="I18" s="7">
-        <v>98624</v>
+        <v>326006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>909</v>
       </c>
       <c r="N18" s="7">
-        <v>192556</v>
+        <v>650174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5546</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5051</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10597</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>440</v>
-      </c>
-      <c r="D20" s="7">
-        <v>320460</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>454</v>
-      </c>
-      <c r="I20" s="7">
-        <v>319117</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M20" s="7">
-        <v>894</v>
-      </c>
-      <c r="N20" s="7">
-        <v>639577</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>447</v>
-      </c>
-      <c r="D21" s="7">
-        <v>326006</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>462</v>
-      </c>
-      <c r="I21" s="7">
-        <v>324168</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>909</v>
-      </c>
-      <c r="N21" s="7">
-        <v>650174</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4599,8 +4086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8D89B8-8CD2-4D09-9833-9E0866596E6D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CB9223-B3DD-4867-8170-9F69D66BD18E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4616,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,19 +4204,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4741,73 +4228,73 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>2324</v>
+        <v>30556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>3918</v>
+        <v>78577</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4819,153 +4306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>2498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>605</v>
+        <v>3282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>41965</v>
+        <v>52850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="I8" s="7">
-        <v>31294</v>
+        <v>100279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="N8" s="7">
-        <v>73258</v>
+        <v>153128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,153 +4461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I9" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N9" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2479</v>
+        <v>416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>777</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>416</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3256</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>100219</v>
+        <v>72599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>56283</v>
+        <v>65846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="N11" s="7">
-        <v>156503</v>
+        <v>138445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,153 +4616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>102698</v>
+        <v>73015</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I12" s="7">
-        <v>57060</v>
+        <v>65846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="N12" s="7">
-        <v>159759</v>
+        <v>138861</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>418</v>
+        <v>1070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>418</v>
+        <v>1904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>64708</v>
+        <v>52649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>56060</v>
+        <v>55301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>120768</v>
+        <v>107950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,153 +4771,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>64708</v>
+        <v>53483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7">
-        <v>56478</v>
+        <v>56371</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>121186</v>
+        <v>109854</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1125</v>
+        <v>2650</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3568</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6218</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>831</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1956</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>55217</v>
+        <v>208654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="7">
+        <v>303</v>
+      </c>
+      <c r="I17" s="7">
+        <v>269448</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>74</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55653</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>570</v>
+      </c>
+      <c r="N17" s="7">
+        <v>478102</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>142</v>
-      </c>
-      <c r="N17" s="7">
-        <v>110870</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,217 +4926,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="D18" s="7">
-        <v>56342</v>
+        <v>211304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="I18" s="7">
-        <v>56484</v>
+        <v>273016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>112826</v>
+        <v>484320</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3603</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2631</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6235</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>303</v>
-      </c>
-      <c r="D20" s="7">
-        <v>264435</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="7">
-        <v>267</v>
-      </c>
-      <c r="I20" s="7">
-        <v>200883</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M20" s="7">
-        <v>570</v>
-      </c>
-      <c r="N20" s="7">
-        <v>465317</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>308</v>
-      </c>
-      <c r="D21" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>271</v>
-      </c>
-      <c r="I21" s="7">
-        <v>203514</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>579</v>
-      </c>
-      <c r="N21" s="7">
-        <v>471552</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
